--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="14055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Router" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1097,16 +1110,16 @@
   <dimension ref="C3:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1315,16 +1328,16 @@
   <dimension ref="C3:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1396,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>22</v>
@@ -1416,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>23</v>
@@ -1436,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>23</v>
@@ -1456,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>23</v>
@@ -1476,7 +1489,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>23</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="14055" activeTab="1"/>
+    <workbookView windowWidth="17280" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -1109,8 +1109,8 @@
   <sheetPr/>
   <dimension ref="C3:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1208,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1228,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1302,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1327,8 +1327,8 @@
   <sheetPr/>
   <dimension ref="C3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1406,10 +1406,10 @@
         <v>300</v>
       </c>
       <c r="D6" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>22</v>
@@ -1426,10 +1426,10 @@
         <v>301</v>
       </c>
       <c r="D7" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>23</v>
@@ -1446,10 +1446,10 @@
         <v>302</v>
       </c>
       <c r="D8" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>23</v>
@@ -1466,10 +1466,10 @@
         <v>303</v>
       </c>
       <c r="D9" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>23</v>
@@ -1486,10 +1486,10 @@
         <v>304</v>
       </c>
       <c r="D10" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>23</v>
